--- a/6/1/1/3/4/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/4/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -3852,55 +3852,55 @@
         <v>73</v>
       </c>
       <c r="B59">
-        <v>6613</v>
+        <v>6662</v>
       </c>
       <c r="C59">
-        <v>5292</v>
+        <v>5290</v>
       </c>
       <c r="D59">
-        <v>16510</v>
+        <v>16504</v>
       </c>
       <c r="E59">
-        <v>11219</v>
+        <v>11214</v>
       </c>
       <c r="F59">
-        <v>1322</v>
+        <v>1372</v>
       </c>
       <c r="G59">
-        <v>2282</v>
+        <v>2332</v>
       </c>
       <c r="H59">
         <v>960</v>
       </c>
       <c r="I59">
-        <v>30970</v>
+        <v>31010</v>
       </c>
       <c r="J59">
-        <v>27729</v>
+        <v>27719</v>
       </c>
       <c r="K59">
         <v>130</v>
       </c>
       <c r="L59">
-        <v>1418</v>
+        <v>1427</v>
       </c>
       <c r="M59">
-        <v>4837</v>
+        <v>4831</v>
       </c>
       <c r="N59">
-        <v>2379</v>
+        <v>2373</v>
       </c>
       <c r="O59">
-        <v>2719</v>
+        <v>2711</v>
       </c>
       <c r="P59">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="Q59">
-        <v>14629</v>
+        <v>14628</v>
       </c>
       <c r="R59">
-        <v>3242</v>
+        <v>3292</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/4/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/4/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -3852,31 +3852,31 @@
         <v>73</v>
       </c>
       <c r="B59">
-        <v>6662</v>
+        <v>6801</v>
       </c>
       <c r="C59">
-        <v>5290</v>
+        <v>5407</v>
       </c>
       <c r="D59">
         <v>16504</v>
       </c>
       <c r="E59">
-        <v>11214</v>
+        <v>11096</v>
       </c>
       <c r="F59">
-        <v>1372</v>
+        <v>1393</v>
       </c>
       <c r="G59">
-        <v>2332</v>
+        <v>2353</v>
       </c>
       <c r="H59">
         <v>960</v>
       </c>
       <c r="I59">
-        <v>31010</v>
+        <v>30914</v>
       </c>
       <c r="J59">
-        <v>27719</v>
+        <v>27600</v>
       </c>
       <c r="K59">
         <v>130</v>
@@ -3885,22 +3885,22 @@
         <v>1427</v>
       </c>
       <c r="M59">
-        <v>4831</v>
+        <v>4819</v>
       </c>
       <c r="N59">
-        <v>2373</v>
+        <v>2383</v>
       </c>
       <c r="O59">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="P59">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="Q59">
-        <v>14628</v>
+        <v>14510</v>
       </c>
       <c r="R59">
-        <v>3292</v>
+        <v>3314</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/4/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/4/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Serie</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3852,16 +3855,16 @@
         <v>73</v>
       </c>
       <c r="B59">
-        <v>6801</v>
+        <v>6797</v>
       </c>
       <c r="C59">
-        <v>5407</v>
+        <v>5404</v>
       </c>
       <c r="D59">
-        <v>16504</v>
+        <v>16537</v>
       </c>
       <c r="E59">
-        <v>11096</v>
+        <v>11133</v>
       </c>
       <c r="F59">
         <v>1393</v>
@@ -3873,10 +3876,10 @@
         <v>960</v>
       </c>
       <c r="I59">
-        <v>30914</v>
+        <v>30983</v>
       </c>
       <c r="J59">
-        <v>27600</v>
+        <v>27670</v>
       </c>
       <c r="K59">
         <v>130</v>
@@ -3885,22 +3888,78 @@
         <v>1427</v>
       </c>
       <c r="M59">
-        <v>4819</v>
+        <v>4820</v>
       </c>
       <c r="N59">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="O59">
-        <v>2708</v>
+        <v>2697</v>
       </c>
       <c r="P59">
-        <v>1622</v>
+        <v>1635</v>
       </c>
       <c r="Q59">
-        <v>14510</v>
+        <v>14577</v>
       </c>
       <c r="R59">
         <v>3314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60">
+        <v>5070</v>
+      </c>
+      <c r="C60">
+        <v>3645</v>
+      </c>
+      <c r="D60">
+        <v>15781</v>
+      </c>
+      <c r="E60">
+        <v>12136</v>
+      </c>
+      <c r="F60">
+        <v>1425</v>
+      </c>
+      <c r="G60">
+        <v>2353</v>
+      </c>
+      <c r="H60">
+        <v>928</v>
+      </c>
+      <c r="I60">
+        <v>31198</v>
+      </c>
+      <c r="J60">
+        <v>27916</v>
+      </c>
+      <c r="K60">
+        <v>119</v>
+      </c>
+      <c r="L60">
+        <v>1513</v>
+      </c>
+      <c r="M60">
+        <v>4186</v>
+      </c>
+      <c r="N60">
+        <v>2540</v>
+      </c>
+      <c r="O60">
+        <v>2784</v>
+      </c>
+      <c r="P60">
+        <v>1662</v>
+      </c>
+      <c r="Q60">
+        <v>15113</v>
+      </c>
+      <c r="R60">
+        <v>3281</v>
       </c>
     </row>
   </sheetData>
